--- a/criardataset/ojb/Kefa I_ordenado_output.xlsx
+++ b/criardataset/ojb/Kefa I_ordenado_output.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,8 @@
     <col width="16642.8" customWidth="1" min="7" max="7"/>
     <col width="2298" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="351.6" customWidth="1" min="10" max="10"/>
+    <col width="507.6" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.2" customHeight="1">
@@ -509,6 +511,16 @@
           <t>Ibn</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Onkelos</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="68.2" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -540,6 +552,8 @@
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
     </row>
     <row r="3" ht="68.2" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -571,6 +585,8 @@
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
     </row>
     <row r="4" ht="68.2" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -610,6 +626,16 @@
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Do not leave his corpse overnight on the tree [&lt;b&gt;crucifix&lt;/b&gt;], but you are surely to bury him on that day, for a hanging corpse is an affront to God [&lt;b&gt;for he was crucified because he sinned before Hashem&lt;/b&gt;]; so do not defile your land that Adonoy, your God, is giving you as territory.</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>his dead body shall not remain upon the beam, but he shall be certainly buried on the same day; for it is execrable before God to hang a man, but that his guilt gave occasion for it; and because he was made in the image of God, you shall bury him at the going down of the sun, lest wild beasts abuse him, and lest you overspread your land, which the Lord your God giveth you to possess, with the dead bodies of criminals.</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="68.2" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -649,6 +675,16 @@
         </is>
       </c>
       <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>They appointed conscription [&lt;b&gt;cruel&lt;/b&gt;] officers over him [&lt;b&gt;them&lt;/b&gt;] to oppress him [&lt;b&gt;them&lt;/b&gt;] with their burdens [&lt;b&gt;work&lt;/b&gt;]. He [B’nei Yisrael] built supply cities for Pharaoh, Pisom and Ramseis.</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>And they set over them work-masters to afflict them in their servitude; and they builded walled cities to become Pharoh's treasure-places, Tanis and Pilusin.</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="68.2" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -684,6 +720,16 @@
         </is>
       </c>
       <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>I will take [&lt;b&gt;bring&lt;/b&gt;] you to Myself [&lt;b&gt;before Me&lt;/b&gt;] as a people, and I will be to you Elohim. You will know that I am Adonoy, your God Who is bringing you out from under [&lt;b&gt;amongst&lt;/b&gt;] the [&lt;b&gt;heavy&lt;/b&gt;] burdens of Egypt.</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>And I will bring you nigh before Me to be a people, and I will be a God unto you, and you shall know that I am the Lord your God who hath led you forth from the hard service of the Mizraee.</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="68.2" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -715,6 +761,16 @@
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>A flawless lamb, a yearling male must be in your possession. You may take it from sheep or goats.</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>The lamb shall be perfect, a male, the son of a year he shall be to you; from the sheep or from the young goats ye may take.</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="68.2" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -750,6 +806,16 @@
       </c>
       <c r="H8" s="3" t="n"/>
       <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Moshe called to all the elders of Yisrael, and he said to them, “Draw [from your flocks] or purchase for yourselves a lamb for your families and slaughter it as a Pesach offering.</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh called all the elders of Israel, and said to them, Withdraw your hands from the idols of the Mizraee, and take to you from the offspring of the flock, according to your houses, and kill the paschal lamb.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="68.2" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -789,6 +855,16 @@
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>And now if you listen diligently [&lt;b&gt;obey&lt;/b&gt;] to My voice [&lt;b&gt;Word&lt;/b&gt;], and preserve My covenant; you shall be [&lt;b&gt;more&lt;/b&gt;] beloved before Me than My special treasure among all the peoples, for all the earth is Mine.</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>And now, if you will truly hearken to My Word and keep My covenant, you shall be more beloved before Me than all the peoples on the face of the earth.</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="68.2" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
@@ -828,6 +904,16 @@
         </is>
       </c>
       <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>You will be to [&lt;b&gt;before&lt;/b&gt;] Me a kingdom of [&lt;b&gt;kings and&lt;/b&gt;] kohanim, and a holy nation.’ These are the words that you shall speak to the Bnei Yisrael.”</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>And before Me you shall be crowned kings, and sanctified priests, and a holy people. These are the words thou shalt speak to the sons of Israel.</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="68.2" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
@@ -863,6 +949,16 @@
         </is>
       </c>
       <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>He then took the Book of the Covenant, and read it in the ears of [&lt;b&gt;before&lt;/b&gt;] the people. They said, “All that Adonoy has spoken, we will do and we will listen [&lt;b&gt;obey&lt;/b&gt;].”</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>And he took the Book of the Covenant of the Law and read before the people; and they said, All the words which the Lord hath spoken we will perform and obey.</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="68.2" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
@@ -890,6 +986,8 @@
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
     </row>
     <row r="13" ht="68.2" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -921,6 +1019,8 @@
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
     </row>
     <row r="14" ht="68.2" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -948,6 +1048,8 @@
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
       <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
     </row>
     <row r="15" ht="68.2" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -979,6 +1081,8 @@
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
     </row>
     <row r="16" ht="68.2" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -1006,6 +1110,8 @@
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
       <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
     </row>
     <row r="17" ht="68.2" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -1037,6 +1143,8 @@
       <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
       <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
     </row>
     <row r="18" ht="68.2" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -1064,6 +1172,8 @@
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
       <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
     </row>
     <row r="19" ht="68.2" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -1095,6 +1205,8 @@
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
     </row>
     <row r="20" ht="68.2" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -1122,6 +1234,8 @@
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
     </row>
     <row r="21" ht="68.2" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -1153,6 +1267,8 @@
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
       <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
     </row>
     <row r="22" ht="68.2" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -1184,6 +1300,8 @@
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
       <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
     </row>
     <row r="23" ht="68.2" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -1215,6 +1333,8 @@
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
     </row>
     <row r="24" ht="68.2" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
@@ -1242,6 +1362,8 @@
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
       <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
     </row>
     <row r="25" ht="68.2" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
@@ -1269,6 +1391,8 @@
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
       <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
     </row>
     <row r="26" ht="68.2" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
@@ -1296,6 +1420,8 @@
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
       <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
     </row>
     <row r="27" ht="68.2" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
@@ -1327,6 +1453,8 @@
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
     </row>
     <row r="28" ht="68.2" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
@@ -1358,6 +1486,16 @@
         </is>
       </c>
       <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>Sarah laughed to herself saying, Now that I am worn out [&lt;b&gt;old&lt;/b&gt;], shall I have the pleasure [of a son] [&lt;b&gt;youthfulness&lt;/b&gt;], my master being [also] an old man.</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>And Sarah wondered in her heart, saying After that I am old shall I have conceptions, and my lord Abraham is old?</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="68.2" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
@@ -1393,6 +1531,16 @@
         </is>
       </c>
       <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>That year came to an end. They came to him in the second year, and they said to him, We are holding nothing back from my master, for the money is used up, and the herds of cattle belong to my master. There is nothing left before my master except our bodies and our land.</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>And that year being ended, all the Mizraee came to him, in the second year, and said to him, We will not hide it from my lord, that the money is finished and my lord hath the flocks of cattle: there is nothing left us before my lord except our bodies, and our land.</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="68.2" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
@@ -1420,6 +1568,8 @@
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
       <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
     </row>
     <row r="31" ht="68.2" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
@@ -1451,6 +1601,12 @@
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>And if ye will not obey, His Word shall be amongst you for revenge, and for a stone of stumbling, and for a rock of offence to both of the houses of the princes of Israel, for destruction and for a snare, because they contend against those of the house of Judah, who are dwelling in Jerusalem.</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="68.2" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
@@ -1482,6 +1638,12 @@
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
       <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>What will ye do in the day that your sins shall be visited upon you? when the tumult of oppression shall come from far? whither will ye flee for help? and where will ye leave your glory?</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="68.2" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
@@ -1509,6 +1671,12 @@
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>And there shall dwell upon him the spirit of prophecy from before the Lord: the spirit of wisdom and understanding, the spirit of counsel and might, the spirit of knowledge and of the fear of the Lord.</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="68.2" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
@@ -1540,6 +1708,8 @@
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
     </row>
     <row r="35" ht="68.2" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
@@ -1571,6 +1741,8 @@
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
     </row>
     <row r="36" ht="68.2" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
@@ -1602,6 +1774,8 @@
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
       <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
     </row>
     <row r="37" ht="68.2" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
@@ -1629,6 +1803,8 @@
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
       <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
     </row>
     <row r="38" ht="68.2" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
@@ -1660,6 +1836,8 @@
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
     </row>
     <row r="39" ht="68.2" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
@@ -1691,6 +1869,8 @@
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
     </row>
     <row r="40" ht="68.2" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
@@ -1718,6 +1898,8 @@
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
     </row>
     <row r="41" ht="68.2" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
@@ -1749,6 +1931,8 @@
       <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
     </row>
     <row r="42" ht="68.2" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
@@ -1780,6 +1964,8 @@
       <c r="G42" s="3" t="n"/>
       <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
     </row>
     <row r="43" ht="68.2" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
@@ -1811,6 +1997,8 @@
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
       <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
     </row>
     <row r="44" ht="68.2" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
@@ -1842,6 +2030,8 @@
       <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
       <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
     </row>
     <row r="45" ht="68.2" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
@@ -1873,6 +2063,8 @@
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
     </row>
     <row r="46" ht="68.2" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
@@ -1904,6 +2096,8 @@
       <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="n"/>
     </row>
     <row r="47" ht="68.2" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
@@ -1935,6 +2129,8 @@
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
     </row>
     <row r="48" ht="68.2" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
@@ -1966,6 +2162,8 @@
       <c r="G48" s="3" t="n"/>
       <c r="H48" s="3" t="n"/>
       <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="n"/>
     </row>
     <row r="49" ht="68.2" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
@@ -1997,6 +2195,8 @@
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
       <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
     </row>
     <row r="50" ht="68.2" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
@@ -2028,6 +2228,8 @@
       <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="n"/>
       <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
     </row>
     <row r="51" ht="68.2" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
@@ -2059,6 +2261,8 @@
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
     </row>
     <row r="52" ht="68.2" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
@@ -2090,6 +2294,8 @@
       <c r="G52" s="3" t="n"/>
       <c r="H52" s="3" t="n"/>
       <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
     </row>
     <row r="53" ht="68.2" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
@@ -2121,6 +2327,8 @@
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
       <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
     </row>
     <row r="54" ht="68.2" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
@@ -2156,6 +2364,16 @@
       </c>
       <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>For [the] soul of the body is in the blood and I have given it to you [to be placed] on the altar to achieve atonement for your souls, for it is the blood that will achieve atonement for the soul.</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>Because the subsistence of the life of all flesh is in the blood, and I have given it to you for a decree, that you shall bring the blood of the victim unto the altar to make atonement for the blood of your lives, because the blood of the victim is to atone for the guilt of the soul.</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="68.2" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
@@ -2195,6 +2413,16 @@
         </is>
       </c>
       <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>Speak to the entire congregation [of] Bnei Yisroel and say to them: You shall be holy, for I, Adonoy, your God, am holy.</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>Speak with the whole congregation of the sons of Israel, and say to them: Ye, shall be holy, for I the Lord your God am Holy.</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="68.2" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
@@ -2226,6 +2454,16 @@
         </is>
       </c>
       <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>Anything that has a blemish on it you shall not bring, for it will not be accepted favorably for you.</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>But anything that hath a blemish you shall not offer; for that will not be acceptable from you.</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="68.2" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
@@ -2257,6 +2495,8 @@
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
     </row>
     <row r="58" ht="68.2" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
@@ -2288,6 +2528,8 @@
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="n"/>
       <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
     </row>
     <row r="59" ht="68.2" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
@@ -2319,6 +2561,8 @@
       <c r="G59" s="3" t="n"/>
       <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
     </row>
     <row r="60" ht="68.2" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
@@ -2350,6 +2594,8 @@
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
     </row>
     <row r="61" ht="68.2" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
@@ -2381,6 +2627,8 @@
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
     </row>
     <row r="62" ht="68.2" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
@@ -2412,6 +2660,8 @@
       <c r="G62" s="3" t="n"/>
       <c r="H62" s="3" t="n"/>
       <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
     </row>
     <row r="63" ht="68.2" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
@@ -2439,6 +2689,8 @@
       <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="n"/>
       <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
     </row>
     <row r="64" ht="68.2" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
@@ -2470,6 +2722,8 @@
       <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="n"/>
       <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
     </row>
     <row r="65" ht="68.2" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
@@ -2497,6 +2751,8 @@
       <c r="G65" s="3" t="n"/>
       <c r="H65" s="3" t="n"/>
       <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
     </row>
     <row r="66" ht="68.2" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
@@ -2524,6 +2780,8 @@
       <c r="G66" s="3" t="n"/>
       <c r="H66" s="3" t="n"/>
       <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="n"/>
+      <c r="K66" s="3" t="n"/>
     </row>
     <row r="67" ht="68.2" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
@@ -2555,6 +2813,8 @@
       <c r="G67" s="3" t="n"/>
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
     </row>
     <row r="68" ht="68.2" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
@@ -2582,6 +2842,8 @@
       <c r="G68" s="3" t="n"/>
       <c r="H68" s="3" t="n"/>
       <c r="I68" s="3" t="n"/>
+      <c r="J68" s="3" t="n"/>
+      <c r="K68" s="3" t="n"/>
     </row>
     <row r="69" ht="68.2" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
@@ -2613,6 +2875,8 @@
       <c r="G69" s="3" t="n"/>
       <c r="H69" s="3" t="n"/>
       <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
     </row>
     <row r="70" ht="68.2" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
@@ -2644,6 +2908,8 @@
       <c r="G70" s="3" t="n"/>
       <c r="H70" s="3" t="n"/>
       <c r="I70" s="3" t="n"/>
+      <c r="J70" s="3" t="n"/>
+      <c r="K70" s="3" t="n"/>
     </row>
     <row r="71" ht="68.2" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
@@ -2671,6 +2937,8 @@
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
       <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
     </row>
     <row r="72" ht="68.2" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
@@ -2702,6 +2970,8 @@
       <c r="G72" s="3" t="n"/>
       <c r="H72" s="3" t="n"/>
       <c r="I72" s="3" t="n"/>
+      <c r="J72" s="3" t="n"/>
+      <c r="K72" s="3" t="n"/>
     </row>
     <row r="73" ht="68.2" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
@@ -2733,6 +3003,8 @@
       <c r="G73" s="3" t="n"/>
       <c r="H73" s="3" t="n"/>
       <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
